--- a/changeB_A2.xlsx
+++ b/changeB_A2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Liza\university2year\sem4\MethV\Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52584FC5-DDD0-4A64-823C-FE5FC317F369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FCFDC9-CC66-4C4A-9951-4B2C9F919A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,64 +182,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5.0781199999999999E-2</c:v>
+                  <c:v>5.6701600000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.101562</c:v>
+                  <c:v>1.1340300000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15234400000000001</c:v>
+                  <c:v>1.70105E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.203125</c:v>
+                  <c:v>2.2680700000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25390600000000002</c:v>
+                  <c:v>2.8350799999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.30468800000000001</c:v>
+                  <c:v>3.4020999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.35546899999999998</c:v>
+                  <c:v>3.9691099999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.40625</c:v>
+                  <c:v>4.5361300000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.45703100000000002</c:v>
+                  <c:v>5.1031499999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.50781200000000004</c:v>
+                  <c:v>5.6701599999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.55859400000000003</c:v>
+                  <c:v>6.2371800000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.609375</c:v>
+                  <c:v>6.8041999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.66015599999999997</c:v>
+                  <c:v>7.3712099999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.71093799999999996</c:v>
+                  <c:v>7.9382299999999992E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.76171900000000003</c:v>
+                  <c:v>8.5052400000000007E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.8125</c:v>
+                  <c:v>9.0722600000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.86328099999999997</c:v>
+                  <c:v>9.6392800000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.91406200000000004</c:v>
+                  <c:v>1.02063E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.96484400000000003</c:v>
+                  <c:v>1.07733E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.01562</c:v>
+                  <c:v>1.1340299999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -251,64 +251,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>7.1979800000000003</c:v>
+                  <c:v>1.4038999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.403300000000002</c:v>
+                  <c:v>2.8077999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.9468</c:v>
+                  <c:v>4.2117000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.443200000000001</c:v>
+                  <c:v>5.6155999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.183599999999998</c:v>
+                  <c:v>7.0194900000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.498899999999999</c:v>
+                  <c:v>8.42339E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47.357599999999998</c:v>
+                  <c:v>9.8272899999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58.578600000000002</c:v>
+                  <c:v>0.112312</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58.775500000000001</c:v>
+                  <c:v>0.12635099999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>68.421700000000001</c:v>
+                  <c:v>0.14038999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>64.878299999999996</c:v>
+                  <c:v>0.15442900000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>76.886700000000005</c:v>
+                  <c:v>0.16846800000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>93.029200000000003</c:v>
+                  <c:v>0.182507</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>97.557000000000002</c:v>
+                  <c:v>0.196546</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>91.257599999999996</c:v>
+                  <c:v>0.21058499999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>98.3446</c:v>
+                  <c:v>0.22462399999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>114.881</c:v>
+                  <c:v>0.23866299999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>123.54300000000001</c:v>
+                  <c:v>0.25270199999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>119.015</c:v>
+                  <c:v>0.26674100000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>131.22</c:v>
+                  <c:v>0.28077999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1464,7 +1464,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1483,162 +1483,162 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
-        <v>5.0781199999999999E-2</v>
+        <v>5.6701600000000005E-4</v>
       </c>
       <c r="B2">
-        <v>7.1979800000000003</v>
+        <v>1.4038999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>0.101562</v>
+        <v>1.1340300000000001E-3</v>
       </c>
       <c r="B3">
-        <v>19.403300000000002</v>
+        <v>2.8077999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <v>0.15234400000000001</v>
+        <v>1.70105E-3</v>
       </c>
       <c r="B4">
-        <v>22.9468</v>
+        <v>4.2117000000000002E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
-        <v>0.203125</v>
+        <v>2.2680700000000001E-3</v>
       </c>
       <c r="B5">
-        <v>29.443200000000001</v>
+        <v>5.6155999999999998E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
-        <v>0.25390600000000002</v>
+        <v>2.8350799999999998E-3</v>
       </c>
       <c r="B6">
-        <v>33.183599999999998</v>
+        <v>7.0194900000000005E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
-        <v>0.30468800000000001</v>
+        <v>3.4020999999999999E-3</v>
       </c>
       <c r="B7">
-        <v>38.498899999999999</v>
+        <v>8.42339E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
-        <v>0.35546899999999998</v>
+        <v>3.9691099999999997E-3</v>
       </c>
       <c r="B8">
-        <v>47.357599999999998</v>
+        <v>9.8272899999999996E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
-        <v>0.40625</v>
+        <v>4.5361300000000002E-3</v>
       </c>
       <c r="B9">
-        <v>58.578600000000002</v>
+        <v>0.112312</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
-        <v>0.45703100000000002</v>
+        <v>5.1031499999999999E-3</v>
       </c>
       <c r="B10">
-        <v>58.775500000000001</v>
+        <v>0.12635099999999999</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
-        <v>0.50781200000000004</v>
+        <v>5.6701599999999996E-3</v>
       </c>
       <c r="B11">
-        <v>68.421700000000001</v>
+        <v>0.14038999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
-        <v>0.55859400000000003</v>
+        <v>6.2371800000000002E-3</v>
       </c>
       <c r="B12">
-        <v>64.878299999999996</v>
+        <v>0.15442900000000001</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
-        <v>0.609375</v>
+        <v>6.8041999999999998E-3</v>
       </c>
       <c r="B13">
-        <v>76.886700000000005</v>
+        <v>0.16846800000000001</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
-        <v>0.66015599999999997</v>
+        <v>7.3712099999999996E-3</v>
       </c>
       <c r="B14">
-        <v>93.029200000000003</v>
+        <v>0.182507</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
-        <v>0.71093799999999996</v>
+        <v>7.9382299999999992E-3</v>
       </c>
       <c r="B15">
-        <v>97.557000000000002</v>
+        <v>0.196546</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
-        <v>0.76171900000000003</v>
+        <v>8.5052400000000007E-3</v>
       </c>
       <c r="B16">
-        <v>91.257599999999996</v>
+        <v>0.21058499999999999</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
-        <v>0.8125</v>
+        <v>9.0722600000000004E-3</v>
       </c>
       <c r="B17">
-        <v>98.3446</v>
+        <v>0.22462399999999999</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
-        <v>0.86328099999999997</v>
+        <v>9.6392800000000001E-3</v>
       </c>
       <c r="B18">
-        <v>114.881</v>
+        <v>0.23866299999999999</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
-        <v>0.91406200000000004</v>
+        <v>1.02063E-2</v>
       </c>
       <c r="B19">
-        <v>123.54300000000001</v>
+        <v>0.25270199999999998</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
-        <v>0.96484400000000003</v>
+        <v>1.07733E-2</v>
       </c>
       <c r="B20">
-        <v>119.015</v>
+        <v>0.26674100000000001</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
-        <v>1.01562</v>
+        <v>1.1340299999999999E-2</v>
       </c>
       <c r="B21">
-        <v>131.22</v>
+        <v>0.28077999999999997</v>
       </c>
     </row>
   </sheetData>
